--- a/biology/Zoologie/Brahmaea/Brahmaea.xlsx
+++ b/biology/Zoologie/Brahmaea/Brahmaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brahmaea est un genre de lépidoptères de la famille des Brahmaeidae.
-Cette famille de Bombyx de taille moyenne à grande regroupe une vingtaine d'espèces qui se trouvent en Afrique, en Asie et en Europe[1].
+Cette famille de Bombyx de taille moyenne à grande regroupe une vingtaine d'espèces qui se trouvent en Afrique, en Asie et en Europe.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Brahmaea a été décrit par l'entomologiste britannique Francis Walker en 1855[2].
-Synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Brahmaea a été décrit par l'entomologiste britannique Francis Walker en 1855.
+Synonymes :
 Acanthobrahmaea Sauter, 1967
 Brachygnatha Zhang &amp; Yang, 1993
 Transbrahmaea Zolotuhin, 2016
@@ -549,9 +563,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Kitching et al. (2018)[3]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Kitching et al. (2018):
 Brahmaea certhia
 Brahmaea europaea, Brahmaéide d'Hartig
 Brahmaea goniata
